--- a/Blue_Ridge_Community_College_Organizations.xlsx
+++ b/Blue_Ridge_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Leadership Council</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Arts</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Leadership Council</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -544,17 +538,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Student Ambassadors Program</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Arts</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Student Ambassadors Program</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -579,17 +572,16 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Blue Ridge PASS Program</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Service</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blue Ridge PASS Program</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -610,17 +602,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Social Impact Squad</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Service</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Social Impact Squad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -645,17 +636,16 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Collegiate FFA (CFFA)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Service</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Collegiate FFA (CFFA)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -688,17 +678,16 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Math Haters Club</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Professional</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Math Haters Club</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -723,17 +712,16 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Nursing Connections</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Professional</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nursing Connections</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -758,17 +746,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Phi Theta Kappa (PTK) International Honor Society</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Phi Theta Kappa (PTK) International Honor Society</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -793,17 +780,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>STEM Club</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>STEM Club</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -828,17 +814,16 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Veterinary Technology Club</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Professional</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Veterinary Technology Club</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -863,17 +848,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Adventure Club</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Service</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Adventure Club</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -898,17 +882,16 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Animanga Club</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Special Interest</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Animanga Club</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -937,17 +920,16 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Blue Ridge Christian Fellowship</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Blue Ridge Christian Fellowship</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,17 +954,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>BRCC Diversity Club</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Cultural</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BRCC Diversity Club</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,17 +992,16 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Constituting America Club</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Arts</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Constituting America Club</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1046,17 +1026,16 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Dream, Believe, Achieve (DBA) Club</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Dream, Believe, Achieve (DBA) Club</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1081,17 +1060,16 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Prism Club</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Prism Club</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1120,7 +1098,6 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Blue_Ridge_Community_College_Organizations.xlsx
+++ b/Blue_Ridge_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Leadership Council</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -538,16 +544,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Student Ambassadors Program</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -572,16 +579,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Blue Ridge PASS Program</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,16 +610,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Social Impact Squad</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -636,16 +645,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Collegiate FFA (CFFA)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -678,16 +688,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Math Haters Club</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -712,16 +723,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Nursing Connections</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -746,16 +758,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Phi Theta Kappa (PTK) International Honor Society</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -780,16 +793,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>STEM Club</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -814,16 +828,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Veterinary Technology Club</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -848,16 +863,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Adventure Club</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -882,16 +898,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Special Interest</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Animanga Club</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Special Interest</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -920,16 +937,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Blue Ridge Christian Fellowship</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -954,16 +972,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>BRCC Diversity Club</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -992,16 +1011,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Constituting America Club</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1026,16 +1046,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Dream, Believe, Achieve (DBA) Club</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1060,16 +1081,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Prism Club</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1098,6 +1120,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Blue_Ridge_Community_College_Organizations.xlsx
+++ b/Blue_Ridge_Community_College_Organizations.xlsx
@@ -438,14 +438,14 @@
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,10 +538,22 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentleadersh</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentleadersh</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -576,7 +588,11 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentambassad</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -603,7 +619,11 @@
           <t>Through Blue Ridge Pass, students learn about organizations, resources, and events in their communities, helping to build networks for their future and contribute to the College and community at the same time.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>blueridgepasspr@brcc.edu</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -639,9 +659,17 @@
           <t>andersonk@brcc.edu</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://instagram.com/socialimpactsqu</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -685,9 +713,17 @@
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/collegiateffacf</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/collegiateffacf</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -718,7 +754,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/mathhatersclub</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -754,11 +794,27 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://instagram.com/nursingconnecti</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://facebook.com/nursingconnecti</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://twitter.com/nursingconnecti</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@nursingconnecti</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -790,8 +846,16 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://facebook.com/phithetakappapt</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://twitter.com/phithetakappapt</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -828,7 +892,11 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@stemclub</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -858,10 +926,18 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/veterinarytechn</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://twitter.com/veterinarytechn</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
@@ -881,7 +957,11 @@
           <t>mailto:harrisr@brcc.edu</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://brcc.edu/logos/adventureclub_logo.png</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Focused on high adventure and service projects, activities may include hiking, camping, skiing, snowboarding, cycling, climbing, archery, kayaking, rafting, etc.</t>
@@ -892,10 +972,22 @@
           <t>harrisr@brcc.edu</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/adventureclub</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://facebook.com/adventureclub</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -934,7 +1026,11 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://facebook.com/animangaclub</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -966,13 +1062,33 @@
           <t>rexrodea@brcc.edu</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/blueridgechrist</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/blueridgechrist</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://facebook.com/blueridgechrist</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@blueridgechrist</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1029,7 +1145,11 @@
           <t>mailto:oquinnm@brcc.edu</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://brcc.edu/logos/constitutingame_logo.png</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>A non-partisan club that is committed to teaching the relevancy of the U.S. Constitution and the principles of self-governance inherent in our founding documents.</t>
@@ -1042,8 +1162,16 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://instagram.com/constitutingame</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://facebook.com/constitutingame</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1064,7 +1192,11 @@
           <t>mailto:walkerm@brcc.edu</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://brcc.edu/logos/dreambelieveach_logo.png</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Providing opportunities for students of all abilities to foster friendships and serve others.</t>
@@ -1076,9 +1208,17 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/dreambelieveach</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://facebook.com/dreambelieveach</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1116,7 +1256,11 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/prismclub</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
